--- a/UrineSampleMother/DB and Documents/UrineSample.xlsx
+++ b/UrineSampleMother/DB and Documents/UrineSample.xlsx
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+    <sheetView tabSelected="1" topLeftCell="Q39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2161,7 +2161,7 @@
         <v>62</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>32</v>
@@ -2175,7 +2175,7 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q5','frmtext', 'tblMainQues','','5.Mother Full Name','','q10','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'q5','frmtext', 'tblMainQues','','5.Mother Full Name','','q6_1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="7" spans="1:22">
